--- a/Ripple.xlsx
+++ b/Ripple.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1345"/>
+  <dimension ref="A1:H1366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35350,27 +35350,573 @@
     </row>
     <row r="1345" spans="1:8">
       <c r="A1345" s="2" t="n">
-        <v>43372</v>
+        <v>43371</v>
       </c>
       <c r="B1345" t="n">
         <v>0.5396</v>
       </c>
       <c r="C1345" t="n">
-        <v>0.5805</v>
+        <v>0.5955</v>
       </c>
       <c r="D1345" t="n">
         <v>0.5237000000000001</v>
       </c>
       <c r="E1345" t="n">
-        <v>0.5706</v>
+        <v>0.5688</v>
       </c>
       <c r="F1345" t="n">
-        <v>0.5706</v>
+        <v>0.5688</v>
       </c>
       <c r="G1345" t="n">
-        <v>34623512</v>
+        <v>96697804</v>
       </c>
       <c r="H1345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8">
+      <c r="A1346" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>0.5688</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>0.6225000000000001</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>0.5589</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>0.5817</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>0.5817</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>119061374</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8">
+      <c r="A1347" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>0.5817</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>0.6045</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>0.5325</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>147631060</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8">
+      <c r="A1348" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>0.5135</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>0.5165</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>0.5165</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>74359301</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8">
+      <c r="A1349" s="2" t="n">
+        <v>43375</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>0.5165</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>0.5377</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>0.5067</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>72629765</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8">
+      <c r="A1350" s="2" t="n">
+        <v>43376</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>0.5248</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>0.5281</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>0.5281</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>40192913</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8">
+      <c r="A1351" s="2" t="n">
+        <v>43377</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>0.5281</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>0.5323</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>0.5195</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>0.5195</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>49240775</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8">
+      <c r="A1352" s="2" t="n">
+        <v>43378</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>0.5195</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>0.4682</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>62429145</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8">
+      <c r="A1353" s="2" t="n">
+        <v>43379</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>0.4671</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>34312127</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8">
+      <c r="A1354" s="2" t="n">
+        <v>43380</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>0.5002</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>44927184</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8">
+      <c r="A1355" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>0.4919</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>0.4697</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>27287509</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8">
+      <c r="A1356" s="2" t="n">
+        <v>43382</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>0.4595</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>28104329</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8">
+      <c r="A1357" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>0.3761</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>0.3809</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>0.3809</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>100057182</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8">
+      <c r="A1358" s="2" t="n">
+        <v>43384</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>0.3809</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>0.4457</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>0.3763</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>0.4193</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>0.4193</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>74069966</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8">
+      <c r="A1359" s="2" t="n">
+        <v>43385</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>0.4193</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>0.4144</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>22651210</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8">
+      <c r="A1360" s="2" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>0.3986</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>0.4064</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>0.4064</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>24772632</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8">
+      <c r="A1361" s="2" t="n">
+        <v>43387</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>0.4064</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>0.5074</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>0.3964</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>118824784</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8">
+      <c r="A1362" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>0.4808</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>0.4506</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>42920689</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8">
+      <c r="A1363" s="2" t="n">
+        <v>43389</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>40239758</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8">
+      <c r="A1364" s="2" t="n">
+        <v>43390</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>0.4494</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>0.4619</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>0.4619</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>38358110</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8">
+      <c r="A1365" s="2" t="n">
+        <v>43391</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>0.4619</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>0.4656</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>0.4567</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>0.4567</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>22726071</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8">
+      <c r="A1366" s="2" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>0.4567</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>0.4686</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>0.4529</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>0.4632</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>0.4632</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>10811634</v>
+      </c>
+      <c r="H1366" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Ripple.xlsx
+++ b/Ripple.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1366"/>
+  <dimension ref="A1:H1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35896,7 +35896,7 @@
     </row>
     <row r="1366" spans="1:8">
       <c r="A1366" s="2" t="n">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="B1366" t="n">
         <v>0.4567</v>
@@ -35908,15 +35908,41 @@
         <v>0.4529</v>
       </c>
       <c r="E1366" t="n">
-        <v>0.4632</v>
+        <v>0.4646</v>
       </c>
       <c r="F1366" t="n">
-        <v>0.4632</v>
+        <v>0.4646</v>
       </c>
       <c r="G1366" t="n">
-        <v>10811634</v>
+        <v>15280968</v>
       </c>
       <c r="H1366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8">
+      <c r="A1367" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>0.4646</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>0.4707</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>0.4672</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.4672</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>6096174</v>
+      </c>
+      <c r="H1367" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Ripple.xlsx
+++ b/Ripple.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1367"/>
+  <dimension ref="A1:H1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35922,7 +35922,7 @@
     </row>
     <row r="1367" spans="1:8">
       <c r="A1367" s="2" t="n">
-        <v>43394</v>
+        <v>43393</v>
       </c>
       <c r="B1367" t="n">
         <v>0.4646</v>
@@ -35931,18 +35931,148 @@
         <v>0.4707</v>
       </c>
       <c r="D1367" t="n">
-        <v>0.4628</v>
+        <v>0.4596</v>
       </c>
       <c r="E1367" t="n">
-        <v>0.4672</v>
+        <v>0.4613</v>
       </c>
       <c r="F1367" t="n">
-        <v>0.4672</v>
+        <v>0.4613</v>
       </c>
       <c r="G1367" t="n">
-        <v>6096174</v>
+        <v>14324747</v>
       </c>
       <c r="H1367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8">
+      <c r="A1368" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>0.4613</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>0.4643</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>0.4518</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>0.4575</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>0.4575</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>14791087</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8">
+      <c r="A1369" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>0.4575</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>0.4402</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>0.4658</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>0.4658</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>45230749</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8">
+      <c r="A1370" s="2" t="n">
+        <v>43396</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>0.4658</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0.4579</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>23343148</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8">
+      <c r="A1371" s="2" t="n">
+        <v>43397</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>0.4688</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>0.4604</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0.4604</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>25873328</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8">
+      <c r="A1372" s="2" t="n">
+        <v>43399</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>0.4604</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>0.4665</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>0.4549</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>0.4627</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.4627</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>19326766</v>
+      </c>
+      <c r="H1372" t="s">
         <v>8</v>
       </c>
     </row>
